--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git Repos\TCP-Forum-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Projects\Repos\TCP-Forum-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707903C-1B4E-4EAE-9E4F-27AE55BBFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A02ADE-7169-402B-9A12-8BC8492521DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="23">
   <si>
     <t xml:space="preserve"> Thread Type</t>
   </si>
@@ -62,12 +62,54 @@
   <si>
     <t>Standard Deviation</t>
   </si>
+  <si>
+    <t>Poster thread count</t>
+  </si>
+  <si>
+    <t>Total post requests</t>
+  </si>
+  <si>
+    <t>Total post thread run time (s)</t>
+  </si>
+  <si>
+    <t>Average post requests per second per thread</t>
+  </si>
+  <si>
+    <t>Reader thread count</t>
+  </si>
+  <si>
+    <t>Total read requests</t>
+  </si>
+  <si>
+    <t>Total read thread run time (s)</t>
+  </si>
+  <si>
+    <t>Average read requests per second per thread</t>
+  </si>
+  <si>
+    <t>Poster Threads</t>
+  </si>
+  <si>
+    <t>Reader Threads</t>
+  </si>
+  <si>
+    <t>Total Threads</t>
+  </si>
+  <si>
+    <t>Average Throughput Per Second Per Thread</t>
+  </si>
+  <si>
+    <t>average throughput</t>
+  </si>
+  <si>
+    <t>Poster threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +117,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -172,11 +243,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -187,6 +325,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,6 +365,1942 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Throughput for Total Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$373</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput Per Second Per Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$374:$C$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19895.419999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15106.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10757.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17953.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17811.830000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15433.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15141.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6836.9290000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B77-4D46-A9C6-E7B4F8665D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$373</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$374:$D$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B77-4D46-A9C6-E7B4F8665D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="232419471"/>
+        <c:axId val="232419887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232419471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232419887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232419887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232419471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$373</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput Per Second Per Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$374:$D$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$374:$E$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19895.419999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15106.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10757.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17953.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17811.830000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15433.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15141.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6836.9290000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D5-473A-98C4-AB5394C5CCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="226186655"/>
+        <c:axId val="226193311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="226186655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226193311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226193311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226186655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAF0B83-30D7-4560-9346-2F2C8AAD8FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1305877</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>816292</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B58A99-8746-4AF1-9B17-41C45EAA40D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,24 +2600,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39436497-7E9A-468C-9D89-00C8C101F9B9}">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:L381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="E369" workbookViewId="0">
+      <selection activeCell="L381" sqref="L381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +2643,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +2669,7 @@
         <v>539.18245761523031</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -584,14 +2686,14 @@
         <v>21543.599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -608,7 +2710,7 @@
         <v>19897.099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -625,14 +2727,14 @@
         <v>19805.099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -649,7 +2751,7 @@
         <v>19571.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -666,14 +2768,14 @@
         <v>18554.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -690,7 +2792,7 @@
         <v>19613.400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,14 +2809,14 @@
         <v>19539.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -731,7 +2833,7 @@
         <v>19687.099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -748,14 +2850,14 @@
         <v>19505.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -772,7 +2874,7 @@
         <v>20000.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -789,14 +2891,14 @@
         <v>19927</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -813,7 +2915,7 @@
         <v>20077.400000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -830,14 +2932,14 @@
         <v>19987.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -854,7 +2956,7 @@
         <v>19920.8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -871,14 +2973,14 @@
         <v>19770.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -895,7 +2997,7 @@
         <v>20548.599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
@@ -912,14 +3014,14 @@
         <v>20378</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
@@ -936,7 +3038,7 @@
         <v>20031.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -953,8 +3055,8 @@
         <v>19708.599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,7 +3073,7 @@
         <v>15798.9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -988,14 +3090,14 @@
         <v>15105.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +3114,7 @@
         <v>15780.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -1029,14 +3131,14 @@
         <v>15200.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +3155,7 @@
         <v>15185.1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,14 +3172,14 @@
         <v>14888.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +3196,7 @@
         <v>15659.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -1111,14 +3213,14 @@
         <v>15046.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +3237,7 @@
         <v>15554.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
@@ -1152,14 +3254,14 @@
         <v>15235.4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +3278,7 @@
         <v>15400.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
@@ -1193,14 +3295,14 @@
         <v>14625</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +3319,7 @@
         <v>15684.8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1234,14 +3336,14 @@
         <v>14827.2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +3360,7 @@
         <v>15611.4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
@@ -1275,14 +3377,14 @@
         <v>15114.7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +3401,7 @@
         <v>15754.8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>2</v>
       </c>
@@ -1316,14 +3418,14 @@
         <v>15199.3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +3442,7 @@
         <v>15210.3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>2</v>
       </c>
@@ -1357,8 +3459,8 @@
         <v>14786.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +3477,7 @@
         <v>11104.2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -1392,14 +3494,14 @@
         <v>10719.1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +3518,7 @@
         <v>11120.2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>2</v>
       </c>
@@ -1433,14 +3535,14 @@
         <v>10700.4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +3559,7 @@
         <v>10990.7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>2</v>
       </c>
@@ -1474,14 +3576,14 @@
         <v>10579.1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +3600,7 @@
         <v>10795.9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>2</v>
       </c>
@@ -1515,14 +3617,14 @@
         <v>10513.7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +3641,7 @@
         <v>10798.7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
@@ -1556,14 +3658,14 @@
         <v>10458.4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +3682,7 @@
         <v>10874.8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -1597,14 +3699,14 @@
         <v>10558.7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +3723,7 @@
         <v>10878.2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
@@ -1638,14 +3740,14 @@
         <v>10549.4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +3764,7 @@
         <v>10821.8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -1679,14 +3781,14 @@
         <v>10497.6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +3805,7 @@
         <v>11353.1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>2</v>
       </c>
@@ -1720,14 +3822,14 @@
         <v>10751.4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +3846,7 @@
         <v>10748.1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>2</v>
       </c>
@@ -1761,8 +3863,8 @@
         <v>10339.299999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +3881,7 @@
         <v>18079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>2</v>
       </c>
@@ -1796,14 +3898,14 @@
         <v>17801.400000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +3922,7 @@
         <v>18042.599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>2</v>
       </c>
@@ -1837,14 +3939,14 @@
         <v>17643.900000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +3963,7 @@
         <v>18052.3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -1878,14 +3980,14 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +4004,7 @@
         <v>17905.3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>2</v>
       </c>
@@ -1919,14 +4021,14 @@
         <v>17717.400000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +4045,7 @@
         <v>18700.400000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>2</v>
       </c>
@@ -1960,14 +4062,14 @@
         <v>16962.3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +4086,7 @@
         <v>18159.3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>2</v>
       </c>
@@ -2001,14 +4103,14 @@
         <v>17220.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +4127,7 @@
         <v>17936.8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>2</v>
       </c>
@@ -2042,14 +4144,14 @@
         <v>17609.8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +4168,7 @@
         <v>18318</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
@@ -2083,14 +4185,14 @@
         <v>17736</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +4209,7 @@
         <v>18037.900000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>2</v>
       </c>
@@ -2124,14 +4226,14 @@
         <v>17696</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +4250,7 @@
         <v>18027.3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>2</v>
       </c>
@@ -2165,8 +4267,8 @@
         <v>16868.099999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +4289,7 @@
         <v>17953.885000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>2</v>
       </c>
@@ -2204,14 +4306,14 @@
         <v>17955.3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>1</v>
       </c>
@@ -2228,7 +4330,7 @@
         <v>18279.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>2</v>
       </c>
@@ -2245,14 +4347,14 @@
         <v>17953.900000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +4371,7 @@
         <v>18101.3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>2</v>
       </c>
@@ -2286,14 +4388,14 @@
         <v>17671.2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +4412,7 @@
         <v>18024.400000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
@@ -2327,14 +4429,14 @@
         <v>17778.2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +4453,7 @@
         <v>18056</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>2</v>
       </c>
@@ -2368,14 +4470,14 @@
         <v>17356.900000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>1</v>
       </c>
@@ -2392,7 +4494,7 @@
         <v>17955.3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
@@ -2409,14 +4511,14 @@
         <v>17620.900000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +4535,7 @@
         <v>18317.900000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>2</v>
       </c>
@@ -2450,14 +4552,14 @@
         <v>17630.7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +4576,7 @@
         <v>18051.5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
@@ -2491,14 +4593,14 @@
         <v>17955.400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +4617,7 @@
         <v>17928.5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>2</v>
       </c>
@@ -2532,14 +4634,14 @@
         <v>17684.599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +4658,7 @@
         <v>18050.7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>2</v>
       </c>
@@ -2573,8 +4675,8 @@
         <v>17627.2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +4693,7 @@
         <v>6885.54</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>2</v>
       </c>
@@ -2608,14 +4710,14 @@
         <v>6634.49</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +4734,7 @@
         <v>7114.61</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>2</v>
       </c>
@@ -2649,14 +4751,14 @@
         <v>6776.07</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>1</v>
       </c>
@@ -2673,7 +4775,7 @@
         <v>6922.12</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>2</v>
       </c>
@@ -2690,14 +4792,14 @@
         <v>6630.84</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +4816,7 @@
         <v>6937.99</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>2</v>
       </c>
@@ -2731,14 +4833,14 @@
         <v>6657.36</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +4857,7 @@
         <v>7025.04</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>2</v>
       </c>
@@ -2772,14 +4874,14 @@
         <v>6855.78</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>1</v>
       </c>
@@ -2796,7 +4898,7 @@
         <v>6971.51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>2</v>
       </c>
@@ -2813,14 +4915,14 @@
         <v>6728.79</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +4939,7 @@
         <v>6908.98</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>2</v>
       </c>
@@ -2854,14 +4956,14 @@
         <v>6622.89</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>1</v>
       </c>
@@ -2878,7 +4980,7 @@
         <v>6963.14</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
@@ -2895,14 +4997,14 @@
         <v>6652.56</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>1</v>
       </c>
@@ -2919,7 +5021,7 @@
         <v>6943.32</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>2</v>
       </c>
@@ -2936,14 +5038,14 @@
         <v>6790.63</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +5062,7 @@
         <v>6953.72</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>2</v>
       </c>
@@ -2977,8 +5079,8 @@
         <v>6763.19</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +5097,7 @@
         <v>1000.35</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>2</v>
       </c>
@@ -3012,14 +5114,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +5138,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>2</v>
       </c>
@@ -3053,14 +5155,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>1</v>
       </c>
@@ -3077,7 +5179,7 @@
         <v>1000.35</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>2</v>
       </c>
@@ -3094,14 +5196,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>1</v>
       </c>
@@ -3118,7 +5220,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>2</v>
       </c>
@@ -3135,14 +5237,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>1</v>
       </c>
@@ -3159,7 +5261,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>2</v>
       </c>
@@ -3176,14 +5278,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +5302,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>2</v>
       </c>
@@ -3217,14 +5319,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>1</v>
       </c>
@@ -3241,7 +5343,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>2</v>
       </c>
@@ -3258,14 +5360,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>1</v>
       </c>
@@ -3282,7 +5384,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>2</v>
       </c>
@@ -3299,14 +5401,14 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>1</v>
       </c>
@@ -3323,7 +5425,7 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>2</v>
       </c>
@@ -3340,14 +5442,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +5466,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>2</v>
       </c>
@@ -3381,8 +5483,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -3399,7 +5501,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>2</v>
       </c>
@@ -3416,14 +5518,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>1</v>
       </c>
@@ -3440,7 +5542,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>2</v>
       </c>
@@ -3457,14 +5559,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +5583,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>2</v>
       </c>
@@ -3498,14 +5600,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -3522,7 +5624,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>2</v>
       </c>
@@ -3539,14 +5641,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>1</v>
       </c>
@@ -3563,7 +5665,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>2</v>
       </c>
@@ -3580,14 +5682,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +5706,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>2</v>
       </c>
@@ -3621,14 +5723,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +5747,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>2</v>
       </c>
@@ -3662,14 +5764,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +5788,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>2</v>
       </c>
@@ -3703,14 +5805,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +5829,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>2</v>
       </c>
@@ -3744,14 +5846,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +5870,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +5887,2678 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="10">
+        <v>1</v>
+      </c>
+      <c r="B249" s="12">
+        <v>198408</v>
+      </c>
+      <c r="C249" s="12">
+        <v>10</v>
+      </c>
+      <c r="D249" s="12">
+        <v>19840.8</v>
+      </c>
+      <c r="E249" s="16">
+        <v>1</v>
+      </c>
+      <c r="F249" s="16">
+        <v>215634</v>
+      </c>
+      <c r="G249" s="16">
+        <v>10.0092</v>
+      </c>
+      <c r="H249" s="16">
+        <v>21543.599999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="10">
+        <v>1</v>
+      </c>
+      <c r="B250" s="12">
+        <v>198972</v>
+      </c>
+      <c r="C250" s="11">
+        <v>10</v>
+      </c>
+      <c r="D250" s="12">
+        <v>19897.099999999999</v>
+      </c>
+      <c r="E250" s="16">
+        <v>1</v>
+      </c>
+      <c r="F250" s="16">
+        <v>198052</v>
+      </c>
+      <c r="G250" s="16">
+        <v>10</v>
+      </c>
+      <c r="H250" s="16">
+        <v>19805.099999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="10">
+        <v>1</v>
+      </c>
+      <c r="B251" s="12">
+        <v>195713</v>
+      </c>
+      <c r="C251" s="11">
+        <v>10.0001</v>
+      </c>
+      <c r="D251" s="12">
+        <v>19571.2</v>
+      </c>
+      <c r="E251" s="16">
+        <v>1</v>
+      </c>
+      <c r="F251" s="16">
+        <v>185547</v>
+      </c>
+      <c r="G251" s="16">
+        <v>10</v>
+      </c>
+      <c r="H251" s="16">
+        <v>18554.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="10">
+        <v>1</v>
+      </c>
+      <c r="B252" s="12">
+        <v>196135</v>
+      </c>
+      <c r="C252" s="11">
+        <v>10</v>
+      </c>
+      <c r="D252" s="12">
+        <v>19613.400000000001</v>
+      </c>
+      <c r="E252" s="16">
+        <v>1</v>
+      </c>
+      <c r="F252" s="16">
+        <v>195397</v>
+      </c>
+      <c r="G252" s="16">
+        <v>10</v>
+      </c>
+      <c r="H252" s="16">
+        <v>19539.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="10">
+        <v>1</v>
+      </c>
+      <c r="B253" s="12">
+        <v>196871</v>
+      </c>
+      <c r="C253" s="11">
+        <v>10</v>
+      </c>
+      <c r="D253" s="12">
+        <v>19687.099999999999</v>
+      </c>
+      <c r="E253" s="16">
+        <v>1</v>
+      </c>
+      <c r="F253" s="16">
+        <v>195058</v>
+      </c>
+      <c r="G253" s="16">
+        <v>10</v>
+      </c>
+      <c r="H253" s="16">
+        <v>19505.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="10">
+        <v>1</v>
+      </c>
+      <c r="B254" s="12">
+        <v>200002</v>
+      </c>
+      <c r="C254" s="11">
+        <v>10</v>
+      </c>
+      <c r="D254" s="12">
+        <v>20000.2</v>
+      </c>
+      <c r="E254" s="16">
+        <v>1</v>
+      </c>
+      <c r="F254" s="16">
+        <v>199271</v>
+      </c>
+      <c r="G254" s="16">
+        <v>10</v>
+      </c>
+      <c r="H254" s="16">
+        <v>19927</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="10">
+        <v>1</v>
+      </c>
+      <c r="B255" s="12">
+        <v>200774</v>
+      </c>
+      <c r="C255" s="11">
+        <v>10</v>
+      </c>
+      <c r="D255" s="12">
+        <v>20077.400000000001</v>
+      </c>
+      <c r="E255" s="16">
+        <v>1</v>
+      </c>
+      <c r="F255" s="16">
+        <v>199878</v>
+      </c>
+      <c r="G255" s="16">
+        <v>10</v>
+      </c>
+      <c r="H255" s="16">
+        <v>19987.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="10">
+        <v>1</v>
+      </c>
+      <c r="B256" s="12">
+        <v>199209</v>
+      </c>
+      <c r="C256" s="11">
+        <v>10</v>
+      </c>
+      <c r="D256" s="12">
+        <v>19920.8</v>
+      </c>
+      <c r="E256" s="16">
+        <v>1</v>
+      </c>
+      <c r="F256" s="16">
+        <v>197703</v>
+      </c>
+      <c r="G256" s="16">
+        <v>10</v>
+      </c>
+      <c r="H256" s="16">
+        <v>19770.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="10">
+        <v>1</v>
+      </c>
+      <c r="B257" s="12">
+        <v>205486</v>
+      </c>
+      <c r="C257" s="11">
+        <v>10</v>
+      </c>
+      <c r="D257" s="12">
+        <v>20548.599999999999</v>
+      </c>
+      <c r="E257" s="16">
+        <v>1</v>
+      </c>
+      <c r="F257" s="16">
+        <v>203780</v>
+      </c>
+      <c r="G257" s="16">
+        <v>10</v>
+      </c>
+      <c r="H257" s="16">
+        <v>20378</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="10">
+        <v>1</v>
+      </c>
+      <c r="B258" s="12">
+        <v>200313</v>
+      </c>
+      <c r="C258" s="11">
+        <v>10</v>
+      </c>
+      <c r="D258" s="12">
+        <v>20031.2</v>
+      </c>
+      <c r="E258" s="16">
+        <v>1</v>
+      </c>
+      <c r="F258" s="16">
+        <v>197087</v>
+      </c>
+      <c r="G258" s="16">
+        <v>10</v>
+      </c>
+      <c r="H258" s="16">
+        <v>19708.599999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <f>AVERAGE(D249:D258)</f>
+        <v>19918.780000000002</v>
+      </c>
+      <c r="H259">
+        <f>AVERAGE(H249:H258)</f>
+        <v>19872.059999999998</v>
+      </c>
+      <c r="J259">
+        <f>AVERAGEA(D259,H259)</f>
+        <v>19895.419999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="262" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="10">
+        <v>2</v>
+      </c>
+      <c r="B263" s="12">
+        <v>315978</v>
+      </c>
+      <c r="C263" s="11">
+        <v>20</v>
+      </c>
+      <c r="D263" s="12">
+        <v>15798.9</v>
+      </c>
+      <c r="E263" s="16">
+        <v>2</v>
+      </c>
+      <c r="F263" s="16">
+        <v>302102</v>
+      </c>
+      <c r="G263" s="16">
+        <v>20</v>
+      </c>
+      <c r="H263" s="16">
+        <v>15105.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="10">
+        <v>2</v>
+      </c>
+      <c r="B264" s="12">
+        <v>315603</v>
+      </c>
+      <c r="C264" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D264" s="12">
+        <v>15780.1</v>
+      </c>
+      <c r="E264" s="16">
+        <v>2</v>
+      </c>
+      <c r="F264" s="16">
+        <v>304014</v>
+      </c>
+      <c r="G264" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H264" s="16">
+        <v>15200.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="10">
+        <v>2</v>
+      </c>
+      <c r="B265" s="12">
+        <v>303702</v>
+      </c>
+      <c r="C265" s="11">
+        <v>20</v>
+      </c>
+      <c r="D265" s="12">
+        <v>15185.1</v>
+      </c>
+      <c r="E265" s="16">
+        <v>2</v>
+      </c>
+      <c r="F265" s="16">
+        <v>297774</v>
+      </c>
+      <c r="G265" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H265" s="16">
+        <v>14888.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="10">
+        <v>2</v>
+      </c>
+      <c r="B266" s="12">
+        <v>313196</v>
+      </c>
+      <c r="C266" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D266" s="12">
+        <v>15659.7</v>
+      </c>
+      <c r="E266" s="16">
+        <v>2</v>
+      </c>
+      <c r="F266" s="16">
+        <v>300931</v>
+      </c>
+      <c r="G266" s="16">
+        <v>20</v>
+      </c>
+      <c r="H266" s="16">
+        <v>15046.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="10">
+        <v>2</v>
+      </c>
+      <c r="B267" s="12">
+        <v>311091</v>
+      </c>
+      <c r="C267" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D267" s="12">
+        <v>15554.5</v>
+      </c>
+      <c r="E267" s="16">
+        <v>2</v>
+      </c>
+      <c r="F267" s="16">
+        <v>304709</v>
+      </c>
+      <c r="G267" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H267" s="16">
+        <v>15235.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="10">
+        <v>2</v>
+      </c>
+      <c r="B268" s="12">
+        <v>308011</v>
+      </c>
+      <c r="C268" s="11">
+        <v>20</v>
+      </c>
+      <c r="D268" s="12">
+        <v>15400.5</v>
+      </c>
+      <c r="E268" s="16">
+        <v>2</v>
+      </c>
+      <c r="F268" s="16">
+        <v>292596</v>
+      </c>
+      <c r="G268" s="16">
+        <v>20.006599999999999</v>
+      </c>
+      <c r="H268" s="16">
+        <v>14625</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="10">
+        <v>2</v>
+      </c>
+      <c r="B269" s="12">
+        <v>313697</v>
+      </c>
+      <c r="C269" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D269" s="12">
+        <v>15684.8</v>
+      </c>
+      <c r="E269" s="16">
+        <v>2</v>
+      </c>
+      <c r="F269" s="16">
+        <v>296580</v>
+      </c>
+      <c r="G269" s="16">
+        <v>20.002500000000001</v>
+      </c>
+      <c r="H269" s="16">
+        <v>14827.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="10">
+        <v>2</v>
+      </c>
+      <c r="B270" s="12">
+        <v>312228</v>
+      </c>
+      <c r="C270" s="11">
+        <v>20</v>
+      </c>
+      <c r="D270" s="12">
+        <v>15611.4</v>
+      </c>
+      <c r="E270" s="16">
+        <v>2</v>
+      </c>
+      <c r="F270" s="16">
+        <v>302295</v>
+      </c>
+      <c r="G270" s="16">
+        <v>20</v>
+      </c>
+      <c r="H270" s="16">
+        <v>15114.7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="10">
+        <v>2</v>
+      </c>
+      <c r="B271" s="12">
+        <v>315098</v>
+      </c>
+      <c r="C271" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D271" s="12">
+        <v>15754.8</v>
+      </c>
+      <c r="E271" s="16">
+        <v>2</v>
+      </c>
+      <c r="F271" s="16">
+        <v>303987</v>
+      </c>
+      <c r="G271" s="16">
+        <v>20</v>
+      </c>
+      <c r="H271" s="16">
+        <v>15199.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="10">
+        <v>2</v>
+      </c>
+      <c r="B272" s="12">
+        <v>304209</v>
+      </c>
+      <c r="C272" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D272" s="12">
+        <v>15210.3</v>
+      </c>
+      <c r="E272" s="16">
+        <v>2</v>
+      </c>
+      <c r="F272" s="16">
+        <v>295731</v>
+      </c>
+      <c r="G272" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H272" s="16">
+        <v>14786.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <f>AVERAGE(D263:D272)</f>
+        <v>15564.009999999998</v>
+      </c>
+      <c r="H273">
+        <f>AVERAGE(H263:H272)</f>
+        <v>15002.9</v>
+      </c>
+      <c r="J273">
+        <f>AVERAGE(D272,H273)</f>
+        <v>15106.599999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H278" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="10">
+        <v>3</v>
+      </c>
+      <c r="B279" s="12">
+        <v>333132</v>
+      </c>
+      <c r="C279" s="11">
+        <v>30.000399999999999</v>
+      </c>
+      <c r="D279" s="12">
+        <v>11104.2</v>
+      </c>
+      <c r="E279" s="16">
+        <v>3</v>
+      </c>
+      <c r="F279" s="16">
+        <v>321573</v>
+      </c>
+      <c r="G279" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H279" s="16">
+        <v>10719.1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="10">
+        <v>3</v>
+      </c>
+      <c r="B280" s="12">
+        <v>333606</v>
+      </c>
+      <c r="C280" s="11">
+        <v>30.0001</v>
+      </c>
+      <c r="D280" s="12">
+        <v>11120.2</v>
+      </c>
+      <c r="E280" s="16">
+        <v>3</v>
+      </c>
+      <c r="F280" s="16">
+        <v>321656</v>
+      </c>
+      <c r="G280" s="16">
+        <v>30.060099999999998</v>
+      </c>
+      <c r="H280" s="16">
+        <v>10700.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="10">
+        <v>3</v>
+      </c>
+      <c r="B281" s="12">
+        <v>329723</v>
+      </c>
+      <c r="C281" s="11">
+        <v>30.0002</v>
+      </c>
+      <c r="D281" s="12">
+        <v>10990.7</v>
+      </c>
+      <c r="E281" s="16">
+        <v>3</v>
+      </c>
+      <c r="F281" s="16">
+        <v>317375</v>
+      </c>
+      <c r="G281" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H281" s="16">
+        <v>10579.1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="10">
+        <v>3</v>
+      </c>
+      <c r="B282" s="12">
+        <v>323878</v>
+      </c>
+      <c r="C282" s="11">
+        <v>30.0002</v>
+      </c>
+      <c r="D282" s="12">
+        <v>10795.9</v>
+      </c>
+      <c r="E282" s="16">
+        <v>3</v>
+      </c>
+      <c r="F282" s="16">
+        <v>315677</v>
+      </c>
+      <c r="G282" s="16">
+        <v>30.025300000000001</v>
+      </c>
+      <c r="H282" s="16">
+        <v>10513.7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="10">
+        <v>3</v>
+      </c>
+      <c r="B283" s="12">
+        <v>323964</v>
+      </c>
+      <c r="C283" s="11">
+        <v>30.0002</v>
+      </c>
+      <c r="D283" s="12">
+        <v>10798.7</v>
+      </c>
+      <c r="E283" s="16">
+        <v>3</v>
+      </c>
+      <c r="F283" s="16">
+        <v>313754</v>
+      </c>
+      <c r="G283" s="16">
+        <v>30.0002</v>
+      </c>
+      <c r="H283" s="16">
+        <v>10458.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="10">
+        <v>3</v>
+      </c>
+      <c r="B284" s="12">
+        <v>326244</v>
+      </c>
+      <c r="C284" s="11">
+        <v>30.0001</v>
+      </c>
+      <c r="D284" s="12">
+        <v>10874.8</v>
+      </c>
+      <c r="E284" s="16">
+        <v>3</v>
+      </c>
+      <c r="F284" s="16">
+        <v>316843</v>
+      </c>
+      <c r="G284" s="16">
+        <v>30.0077</v>
+      </c>
+      <c r="H284" s="16">
+        <v>10558.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="10">
+        <v>3</v>
+      </c>
+      <c r="B285" s="12">
+        <v>326348</v>
+      </c>
+      <c r="C285" s="11">
+        <v>30.0002</v>
+      </c>
+      <c r="D285" s="12">
+        <v>10878.2</v>
+      </c>
+      <c r="E285" s="16">
+        <v>3</v>
+      </c>
+      <c r="F285" s="16">
+        <v>316613</v>
+      </c>
+      <c r="G285" s="16">
+        <v>30.0124</v>
+      </c>
+      <c r="H285" s="16">
+        <v>10549.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="10">
+        <v>3</v>
+      </c>
+      <c r="B286" s="12">
+        <v>324656</v>
+      </c>
+      <c r="C286" s="11">
+        <v>30.0002</v>
+      </c>
+      <c r="D286" s="12">
+        <v>10821.8</v>
+      </c>
+      <c r="E286" s="16">
+        <v>3</v>
+      </c>
+      <c r="F286" s="16">
+        <v>315008</v>
+      </c>
+      <c r="G286" s="16">
+        <v>30.0077</v>
+      </c>
+      <c r="H286" s="16">
+        <v>10497.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="10">
+        <v>3</v>
+      </c>
+      <c r="B287" s="12">
+        <v>340595</v>
+      </c>
+      <c r="C287" s="11">
+        <v>30.0001</v>
+      </c>
+      <c r="D287" s="12">
+        <v>11353.1</v>
+      </c>
+      <c r="E287" s="16">
+        <v>3</v>
+      </c>
+      <c r="F287" s="16">
+        <v>322626</v>
+      </c>
+      <c r="G287" s="16">
+        <v>30.0078</v>
+      </c>
+      <c r="H287" s="16">
+        <v>10751.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="10">
+        <v>3</v>
+      </c>
+      <c r="B288" s="12">
+        <v>322444</v>
+      </c>
+      <c r="C288" s="11">
+        <v>30.0001</v>
+      </c>
+      <c r="D288" s="12">
+        <v>10748.1</v>
+      </c>
+      <c r="E288" s="16">
+        <v>3</v>
+      </c>
+      <c r="F288" s="16">
+        <v>310329</v>
+      </c>
+      <c r="G288" s="16">
+        <v>30.014500000000002</v>
+      </c>
+      <c r="H288" s="16">
+        <v>10339.299999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <f>AVERAGE(D279:D288)</f>
+        <v>10948.570000000003</v>
+      </c>
+      <c r="H289">
+        <f>AVERAGE(H279:H288)</f>
+        <v>10566.710000000001</v>
+      </c>
+      <c r="J289">
+        <f>AVERAGE(D289:H289)</f>
+        <v>10757.640000000003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="295" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H295" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="10">
+        <v>2</v>
+      </c>
+      <c r="B296" s="12">
+        <v>361595</v>
+      </c>
+      <c r="C296" s="11">
+        <v>20</v>
+      </c>
+      <c r="D296" s="12">
+        <v>18079.7</v>
+      </c>
+      <c r="E296" s="16">
+        <v>1</v>
+      </c>
+      <c r="F296" s="16">
+        <v>178014</v>
+      </c>
+      <c r="G296" s="16">
+        <v>10</v>
+      </c>
+      <c r="H296" s="16">
+        <v>17801.400000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="10">
+        <v>2</v>
+      </c>
+      <c r="B297" s="12">
+        <v>360852</v>
+      </c>
+      <c r="C297" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D297" s="12">
+        <v>18042.599999999999</v>
+      </c>
+      <c r="E297" s="16">
+        <v>1</v>
+      </c>
+      <c r="F297" s="16">
+        <v>176439</v>
+      </c>
+      <c r="G297" s="16">
+        <v>10</v>
+      </c>
+      <c r="H297" s="16">
+        <v>17643.900000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="10">
+        <v>2</v>
+      </c>
+      <c r="B298" s="12">
+        <v>361047</v>
+      </c>
+      <c r="C298" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D298" s="12">
+        <v>18052.3</v>
+      </c>
+      <c r="E298" s="16">
+        <v>1</v>
+      </c>
+      <c r="F298" s="16">
+        <v>177220</v>
+      </c>
+      <c r="G298" s="16">
+        <v>10</v>
+      </c>
+      <c r="H298" s="16">
+        <v>17722</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="10">
+        <v>2</v>
+      </c>
+      <c r="B299" s="12">
+        <v>358108</v>
+      </c>
+      <c r="C299" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D299" s="12">
+        <v>17905.3</v>
+      </c>
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>177174</v>
+      </c>
+      <c r="G299" s="16">
+        <v>10</v>
+      </c>
+      <c r="H299" s="16">
+        <v>17717.400000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="10">
+        <v>2</v>
+      </c>
+      <c r="B300" s="12">
+        <v>374008</v>
+      </c>
+      <c r="C300" s="11">
+        <v>20</v>
+      </c>
+      <c r="D300" s="12">
+        <v>18700.400000000001</v>
+      </c>
+      <c r="E300" s="16">
+        <v>1</v>
+      </c>
+      <c r="F300" s="16">
+        <v>169623</v>
+      </c>
+      <c r="G300" s="16">
+        <v>10</v>
+      </c>
+      <c r="H300" s="16">
+        <v>16962.3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="10">
+        <v>2</v>
+      </c>
+      <c r="B301" s="12">
+        <v>363187</v>
+      </c>
+      <c r="C301" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D301" s="12">
+        <v>18159.3</v>
+      </c>
+      <c r="E301" s="16">
+        <v>1</v>
+      </c>
+      <c r="F301" s="16">
+        <v>172202</v>
+      </c>
+      <c r="G301" s="16">
+        <v>10</v>
+      </c>
+      <c r="H301" s="16">
+        <v>17220.099999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="10">
+        <v>2</v>
+      </c>
+      <c r="B302" s="12">
+        <v>358738</v>
+      </c>
+      <c r="C302" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D302" s="12">
+        <v>17936.8</v>
+      </c>
+      <c r="E302" s="16">
+        <v>1</v>
+      </c>
+      <c r="F302" s="16">
+        <v>176098</v>
+      </c>
+      <c r="G302" s="16">
+        <v>10</v>
+      </c>
+      <c r="H302" s="16">
+        <v>17609.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="10">
+        <v>2</v>
+      </c>
+      <c r="B303" s="12">
+        <v>366361</v>
+      </c>
+      <c r="C303" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D303" s="12">
+        <v>18318</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>177360</v>
+      </c>
+      <c r="G303" s="16">
+        <v>10</v>
+      </c>
+      <c r="H303" s="16">
+        <v>17736</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="10">
+        <v>2</v>
+      </c>
+      <c r="B304" s="12">
+        <v>360759</v>
+      </c>
+      <c r="C304" s="11">
+        <v>20.0001</v>
+      </c>
+      <c r="D304" s="12">
+        <v>18037.900000000001</v>
+      </c>
+      <c r="E304" s="16">
+        <v>1</v>
+      </c>
+      <c r="F304" s="16">
+        <v>176960</v>
+      </c>
+      <c r="G304" s="16">
+        <v>10</v>
+      </c>
+      <c r="H304" s="16">
+        <v>17696</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="10">
+        <v>2</v>
+      </c>
+      <c r="B305" s="12">
+        <v>360546</v>
+      </c>
+      <c r="C305" s="11">
+        <v>20</v>
+      </c>
+      <c r="D305" s="12">
+        <v>18027.3</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>168681</v>
+      </c>
+      <c r="G305" s="16">
+        <v>10</v>
+      </c>
+      <c r="H305" s="16">
+        <v>16868.099999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D306">
+        <f>AVERAGE(D296:D305)</f>
+        <v>18125.96</v>
+      </c>
+      <c r="H306">
+        <f>AVERAGE(H296:H305)</f>
+        <v>17497.700000000004</v>
+      </c>
+      <c r="J306">
+        <f>AVERAGE(D306:H306)</f>
+        <v>17811.830000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F312" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H312" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="10">
+        <v>1</v>
+      </c>
+      <c r="B313" s="12">
+        <v>190784</v>
+      </c>
+      <c r="C313" s="11">
+        <v>10</v>
+      </c>
+      <c r="D313" s="12">
+        <v>19078.3</v>
+      </c>
+      <c r="E313" s="16">
+        <v>2</v>
+      </c>
+      <c r="F313" s="16">
+        <v>359107</v>
+      </c>
+      <c r="G313" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H313" s="16">
+        <v>17955.3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="10">
+        <v>1</v>
+      </c>
+      <c r="B314" s="12">
+        <v>182795</v>
+      </c>
+      <c r="C314" s="11">
+        <v>10</v>
+      </c>
+      <c r="D314" s="12">
+        <v>18279.5</v>
+      </c>
+      <c r="E314" s="16">
+        <v>2</v>
+      </c>
+      <c r="F314" s="16">
+        <v>359078</v>
+      </c>
+      <c r="G314" s="16">
+        <v>20</v>
+      </c>
+      <c r="H314" s="16">
+        <v>17953.900000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="10">
+        <v>1</v>
+      </c>
+      <c r="B315" s="12">
+        <v>181014</v>
+      </c>
+      <c r="C315" s="11">
+        <v>10</v>
+      </c>
+      <c r="D315" s="12">
+        <v>18101.3</v>
+      </c>
+      <c r="E315" s="16">
+        <v>2</v>
+      </c>
+      <c r="F315" s="16">
+        <v>353424</v>
+      </c>
+      <c r="G315" s="16">
+        <v>20</v>
+      </c>
+      <c r="H315" s="16">
+        <v>17671.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="10">
+        <v>1</v>
+      </c>
+      <c r="B316" s="12">
+        <v>180245</v>
+      </c>
+      <c r="C316" s="11">
+        <v>10</v>
+      </c>
+      <c r="D316" s="12">
+        <v>18024.400000000001</v>
+      </c>
+      <c r="E316" s="16">
+        <v>2</v>
+      </c>
+      <c r="F316" s="16">
+        <v>355564</v>
+      </c>
+      <c r="G316" s="16">
+        <v>20</v>
+      </c>
+      <c r="H316" s="16">
+        <v>17778.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="10">
+        <v>1</v>
+      </c>
+      <c r="B317" s="12">
+        <v>180561</v>
+      </c>
+      <c r="C317" s="11">
+        <v>10</v>
+      </c>
+      <c r="D317" s="12">
+        <v>18056</v>
+      </c>
+      <c r="E317" s="16">
+        <v>2</v>
+      </c>
+      <c r="F317" s="16">
+        <v>347139</v>
+      </c>
+      <c r="G317" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H317" s="16">
+        <v>17356.900000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="10">
+        <v>1</v>
+      </c>
+      <c r="B318" s="12">
+        <v>179553</v>
+      </c>
+      <c r="C318" s="11">
+        <v>10</v>
+      </c>
+      <c r="D318" s="12">
+        <v>17955.3</v>
+      </c>
+      <c r="E318" s="16">
+        <v>2</v>
+      </c>
+      <c r="F318" s="16">
+        <v>352419</v>
+      </c>
+      <c r="G318" s="16">
+        <v>20</v>
+      </c>
+      <c r="H318" s="16">
+        <v>17620.900000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="10">
+        <v>1</v>
+      </c>
+      <c r="B319" s="12">
+        <v>183180</v>
+      </c>
+      <c r="C319" s="11">
+        <v>10</v>
+      </c>
+      <c r="D319" s="12">
+        <v>18317.900000000001</v>
+      </c>
+      <c r="E319" s="16">
+        <v>2</v>
+      </c>
+      <c r="F319" s="16">
+        <v>352615</v>
+      </c>
+      <c r="G319" s="16">
+        <v>20</v>
+      </c>
+      <c r="H319" s="16">
+        <v>17630.7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="10">
+        <v>1</v>
+      </c>
+      <c r="B320" s="12">
+        <v>180516</v>
+      </c>
+      <c r="C320" s="11">
+        <v>10</v>
+      </c>
+      <c r="D320" s="12">
+        <v>18051.5</v>
+      </c>
+      <c r="E320" s="16">
+        <v>2</v>
+      </c>
+      <c r="F320" s="16">
+        <v>359110</v>
+      </c>
+      <c r="G320" s="16">
+        <v>20.0001</v>
+      </c>
+      <c r="H320" s="16">
+        <v>17955.400000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="10">
+        <v>1</v>
+      </c>
+      <c r="B321" s="12">
+        <v>179286</v>
+      </c>
+      <c r="C321" s="11">
+        <v>10</v>
+      </c>
+      <c r="D321" s="12">
+        <v>17928.5</v>
+      </c>
+      <c r="E321" s="16">
+        <v>2</v>
+      </c>
+      <c r="F321" s="16">
+        <v>353692</v>
+      </c>
+      <c r="G321" s="16">
+        <v>20</v>
+      </c>
+      <c r="H321" s="16">
+        <v>17684.599999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="10">
+        <v>1</v>
+      </c>
+      <c r="B322" s="12">
+        <v>180507</v>
+      </c>
+      <c r="C322" s="11">
+        <v>10</v>
+      </c>
+      <c r="D322" s="12">
+        <v>18050.7</v>
+      </c>
+      <c r="E322" s="16">
+        <v>2</v>
+      </c>
+      <c r="F322" s="16">
+        <v>352545</v>
+      </c>
+      <c r="G322" s="16">
+        <v>20</v>
+      </c>
+      <c r="H322" s="16">
+        <v>17627.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <f>AVERAGE(D313:D322)</f>
+        <v>18184.340000000004</v>
+      </c>
+      <c r="H323">
+        <f>AVERAGE(H313:H322)</f>
+        <v>17723.43</v>
+      </c>
+      <c r="J323">
+        <f>AVERAGE(D323:H323)</f>
+        <v>17953.885000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="328" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F328" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="10">
+        <v>1</v>
+      </c>
+      <c r="B329" s="12">
+        <v>155334</v>
+      </c>
+      <c r="C329" s="11">
+        <v>10.0001</v>
+      </c>
+      <c r="D329" s="12">
+        <v>15533.3</v>
+      </c>
+      <c r="E329" s="16">
+        <v>3</v>
+      </c>
+      <c r="F329" s="16">
+        <v>452842</v>
+      </c>
+      <c r="G329" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H329" s="16">
+        <v>15094.7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="10">
+        <v>1</v>
+      </c>
+      <c r="B330" s="12">
+        <v>153732</v>
+      </c>
+      <c r="C330" s="11">
+        <v>10</v>
+      </c>
+      <c r="D330" s="12">
+        <v>15373.2</v>
+      </c>
+      <c r="E330" s="16">
+        <v>3</v>
+      </c>
+      <c r="F330" s="16">
+        <v>453435</v>
+      </c>
+      <c r="G330" s="16">
+        <v>30</v>
+      </c>
+      <c r="H330" s="16">
+        <v>15114.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="10">
+        <v>1</v>
+      </c>
+      <c r="B331" s="12">
+        <v>156603</v>
+      </c>
+      <c r="C331" s="11">
+        <v>10</v>
+      </c>
+      <c r="D331" s="12">
+        <v>15660.3</v>
+      </c>
+      <c r="E331" s="16">
+        <v>3</v>
+      </c>
+      <c r="F331" s="16">
+        <v>463344</v>
+      </c>
+      <c r="G331" s="16">
+        <v>30.000699999999998</v>
+      </c>
+      <c r="H331" s="16">
+        <v>15444.4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="10">
+        <v>1</v>
+      </c>
+      <c r="B332" s="12">
+        <v>153669</v>
+      </c>
+      <c r="C332" s="11">
+        <v>10</v>
+      </c>
+      <c r="D332" s="12">
+        <v>15366.9</v>
+      </c>
+      <c r="E332" s="16">
+        <v>3</v>
+      </c>
+      <c r="F332" s="16">
+        <v>454135</v>
+      </c>
+      <c r="G332" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H332" s="16">
+        <v>15137.8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="10">
+        <v>1</v>
+      </c>
+      <c r="B333" s="12">
+        <v>156541</v>
+      </c>
+      <c r="C333" s="11">
+        <v>10</v>
+      </c>
+      <c r="D333" s="12">
+        <v>15654.1</v>
+      </c>
+      <c r="E333" s="16">
+        <v>3</v>
+      </c>
+      <c r="F333" s="16">
+        <v>459728</v>
+      </c>
+      <c r="G333" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H333" s="16">
+        <v>15324.2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="10">
+        <v>1</v>
+      </c>
+      <c r="B334" s="12">
+        <v>159863</v>
+      </c>
+      <c r="C334" s="11">
+        <v>10</v>
+      </c>
+      <c r="D334" s="12">
+        <v>15986.3</v>
+      </c>
+      <c r="E334" s="16">
+        <v>3</v>
+      </c>
+      <c r="F334" s="16">
+        <v>454067</v>
+      </c>
+      <c r="G334" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H334" s="16">
+        <v>15135.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="10">
+        <v>1</v>
+      </c>
+      <c r="B335" s="12">
+        <v>158947</v>
+      </c>
+      <c r="C335" s="11">
+        <v>10</v>
+      </c>
+      <c r="D335" s="12">
+        <v>15894.7</v>
+      </c>
+      <c r="E335" s="16">
+        <v>3</v>
+      </c>
+      <c r="F335" s="16">
+        <v>450799</v>
+      </c>
+      <c r="G335" s="16">
+        <v>30</v>
+      </c>
+      <c r="H335" s="16">
+        <v>15026.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="10">
+        <v>1</v>
+      </c>
+      <c r="B336" s="12">
+        <v>156890</v>
+      </c>
+      <c r="C336" s="11">
+        <v>10</v>
+      </c>
+      <c r="D336" s="12">
+        <v>15689</v>
+      </c>
+      <c r="E336" s="16">
+        <v>3</v>
+      </c>
+      <c r="F336" s="16">
+        <v>459983</v>
+      </c>
+      <c r="G336" s="16">
+        <v>30</v>
+      </c>
+      <c r="H336" s="16">
+        <v>15332.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="10">
+        <v>1</v>
+      </c>
+      <c r="B337" s="12">
+        <v>158581</v>
+      </c>
+      <c r="C337" s="11">
+        <v>10</v>
+      </c>
+      <c r="D337" s="12">
+        <v>15858</v>
+      </c>
+      <c r="E337" s="16">
+        <v>3</v>
+      </c>
+      <c r="F337" s="16">
+        <v>456733</v>
+      </c>
+      <c r="G337" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H337" s="16">
+        <v>15224.4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="10">
+        <v>1</v>
+      </c>
+      <c r="B338" s="12">
+        <v>155615</v>
+      </c>
+      <c r="C338" s="11">
+        <v>10</v>
+      </c>
+      <c r="D338" s="12">
+        <v>15561.5</v>
+      </c>
+      <c r="E338" s="16">
+        <v>3</v>
+      </c>
+      <c r="F338" s="16">
+        <v>457669</v>
+      </c>
+      <c r="G338" s="16">
+        <v>30.0001</v>
+      </c>
+      <c r="H338" s="16">
+        <v>15255.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <f>AVERAGE(D329:D338)</f>
+        <v>15657.73</v>
+      </c>
+      <c r="H339">
+        <f>AVERAGE(H329:H338)</f>
+        <v>15209.039999999999</v>
+      </c>
+      <c r="J339">
+        <f>AVERAGE(D339:H339)</f>
+        <v>15433.384999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="342" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E342" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H342" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="10">
+        <v>3</v>
+      </c>
+      <c r="B343" s="12">
+        <v>453742</v>
+      </c>
+      <c r="C343" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D343" s="12">
+        <v>15124.7</v>
+      </c>
+      <c r="E343" s="16">
+        <v>1</v>
+      </c>
+      <c r="F343" s="16">
+        <v>144026</v>
+      </c>
+      <c r="G343" s="16">
+        <v>10</v>
+      </c>
+      <c r="H343" s="16">
+        <v>14402.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="10">
+        <v>3</v>
+      </c>
+      <c r="B344" s="12">
+        <v>459409</v>
+      </c>
+      <c r="C344" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D344" s="12">
+        <v>15313.6</v>
+      </c>
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>147136</v>
+      </c>
+      <c r="G344" s="16">
+        <v>10</v>
+      </c>
+      <c r="H344" s="16">
+        <v>14713.6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="10">
+        <v>3</v>
+      </c>
+      <c r="B345" s="12">
+        <v>462396</v>
+      </c>
+      <c r="C345" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D345" s="12">
+        <v>15413.1</v>
+      </c>
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>150417</v>
+      </c>
+      <c r="G345" s="16">
+        <v>10</v>
+      </c>
+      <c r="H345" s="16">
+        <v>15041.7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="10">
+        <v>3</v>
+      </c>
+      <c r="B346" s="12">
+        <v>453448</v>
+      </c>
+      <c r="C346" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D346" s="12">
+        <v>15114.9</v>
+      </c>
+      <c r="E346" s="16">
+        <v>1</v>
+      </c>
+      <c r="F346" s="16">
+        <v>147710</v>
+      </c>
+      <c r="G346" s="16">
+        <v>10</v>
+      </c>
+      <c r="H346" s="16">
+        <v>14771</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="10">
+        <v>3</v>
+      </c>
+      <c r="B347" s="12">
+        <v>451990</v>
+      </c>
+      <c r="C347" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D347" s="12">
+        <v>15066.3</v>
+      </c>
+      <c r="E347" s="16">
+        <v>1</v>
+      </c>
+      <c r="F347" s="16">
+        <v>147143</v>
+      </c>
+      <c r="G347" s="16">
+        <v>10</v>
+      </c>
+      <c r="H347" s="16">
+        <v>14714.3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="10">
+        <v>3</v>
+      </c>
+      <c r="B348" s="12">
+        <v>456599</v>
+      </c>
+      <c r="C348" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D348" s="12">
+        <v>15219.9</v>
+      </c>
+      <c r="E348" s="16">
+        <v>1</v>
+      </c>
+      <c r="F348" s="16">
+        <v>148330</v>
+      </c>
+      <c r="G348" s="16">
+        <v>10</v>
+      </c>
+      <c r="H348" s="16">
+        <v>14833</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="10">
+        <v>3</v>
+      </c>
+      <c r="B349" s="12">
+        <v>465532</v>
+      </c>
+      <c r="C349" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D349" s="12">
+        <v>15517.7</v>
+      </c>
+      <c r="E349" s="16">
+        <v>1</v>
+      </c>
+      <c r="F349" s="16">
+        <v>150720</v>
+      </c>
+      <c r="G349" s="16">
+        <v>10</v>
+      </c>
+      <c r="H349" s="16">
+        <v>15071.9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="10">
+        <v>3</v>
+      </c>
+      <c r="B350" s="12">
+        <v>459471</v>
+      </c>
+      <c r="C350" s="12">
+        <v>30</v>
+      </c>
+      <c r="D350" s="12">
+        <v>15315.7</v>
+      </c>
+      <c r="E350" s="16">
+        <v>1</v>
+      </c>
+      <c r="F350" s="16">
+        <v>146699</v>
+      </c>
+      <c r="G350" s="16">
+        <v>10</v>
+      </c>
+      <c r="H350" s="16">
+        <v>14669.9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="10">
+        <v>3</v>
+      </c>
+      <c r="B351" s="12">
+        <v>476838</v>
+      </c>
+      <c r="C351" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D351" s="12">
+        <v>15894.5</v>
+      </c>
+      <c r="E351" s="16">
+        <v>1</v>
+      </c>
+      <c r="F351" s="16">
+        <v>153910</v>
+      </c>
+      <c r="G351" s="16">
+        <v>10</v>
+      </c>
+      <c r="H351" s="16">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="10">
+        <v>3</v>
+      </c>
+      <c r="B352" s="12">
+        <v>476339</v>
+      </c>
+      <c r="C352" s="12">
+        <v>30.0001</v>
+      </c>
+      <c r="D352" s="12">
+        <v>15877.9</v>
+      </c>
+      <c r="E352" s="16">
+        <v>1</v>
+      </c>
+      <c r="F352" s="16">
+        <v>153629</v>
+      </c>
+      <c r="G352" s="16">
+        <v>10</v>
+      </c>
+      <c r="H352" s="16">
+        <v>15362.8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <f>AVERAGE(D343:D352)</f>
+        <v>15385.829999999998</v>
+      </c>
+      <c r="H353">
+        <f>AVERAGE(H343:H352)</f>
+        <v>14897.169999999998</v>
+      </c>
+      <c r="J353">
+        <f>AVERAGE(D353:H353)</f>
+        <v>15141.499999999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="358" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H358" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="10">
+        <v>5</v>
+      </c>
+      <c r="B359" s="12">
+        <v>344281</v>
+      </c>
+      <c r="C359" s="12">
+        <v>50.000599999999999</v>
+      </c>
+      <c r="D359" s="12">
+        <v>6885.54</v>
+      </c>
+      <c r="E359" s="16">
+        <v>5</v>
+      </c>
+      <c r="F359" s="16">
+        <v>332197</v>
+      </c>
+      <c r="G359" s="16">
+        <v>50.071199999999997</v>
+      </c>
+      <c r="H359" s="16">
+        <v>6634.49</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="10">
+        <v>5</v>
+      </c>
+      <c r="B360" s="12">
+        <v>355735</v>
+      </c>
+      <c r="C360" s="12">
+        <v>50.000599999999999</v>
+      </c>
+      <c r="D360" s="12">
+        <v>7114.61</v>
+      </c>
+      <c r="E360" s="16">
+        <v>5</v>
+      </c>
+      <c r="F360" s="16">
+        <v>339101</v>
+      </c>
+      <c r="G360" s="16">
+        <v>50.043900000000001</v>
+      </c>
+      <c r="H360" s="16">
+        <v>6776.07</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="10">
+        <v>5</v>
+      </c>
+      <c r="B361" s="12">
+        <v>346109</v>
+      </c>
+      <c r="C361" s="12">
+        <v>50.000500000000002</v>
+      </c>
+      <c r="D361" s="12">
+        <v>6922.12</v>
+      </c>
+      <c r="E361" s="16">
+        <v>5</v>
+      </c>
+      <c r="F361" s="16">
+        <v>331959</v>
+      </c>
+      <c r="G361" s="16">
+        <v>50.062899999999999</v>
+      </c>
+      <c r="H361" s="16">
+        <v>6630.84</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="10">
+        <v>5</v>
+      </c>
+      <c r="B362" s="12">
+        <v>346904</v>
+      </c>
+      <c r="C362" s="12">
+        <v>50.000599999999999</v>
+      </c>
+      <c r="D362" s="12">
+        <v>6937.99</v>
+      </c>
+      <c r="E362" s="16">
+        <v>5</v>
+      </c>
+      <c r="F362" s="16">
+        <v>332980</v>
+      </c>
+      <c r="G362" s="16">
+        <v>50.0169</v>
+      </c>
+      <c r="H362" s="16">
+        <v>6657.36</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="10">
+        <v>5</v>
+      </c>
+      <c r="B363" s="12">
+        <v>351255</v>
+      </c>
+      <c r="C363" s="12">
+        <v>50.000399999999999</v>
+      </c>
+      <c r="D363" s="12">
+        <v>7025.04</v>
+      </c>
+      <c r="E363" s="16">
+        <v>5</v>
+      </c>
+      <c r="F363" s="16">
+        <v>343224</v>
+      </c>
+      <c r="G363" s="16">
+        <v>50.063400000000001</v>
+      </c>
+      <c r="H363" s="16">
+        <v>6855.78</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="10">
+        <v>5</v>
+      </c>
+      <c r="B364" s="12">
+        <v>348610</v>
+      </c>
+      <c r="C364" s="12">
+        <v>50.004899999999999</v>
+      </c>
+      <c r="D364" s="12">
+        <v>6971.51</v>
+      </c>
+      <c r="E364" s="16">
+        <v>5</v>
+      </c>
+      <c r="F364" s="16">
+        <v>336710</v>
+      </c>
+      <c r="G364" s="16">
+        <v>50.040199999999999</v>
+      </c>
+      <c r="H364" s="16">
+        <v>6728.79</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="10">
+        <v>5</v>
+      </c>
+      <c r="B365" s="12">
+        <v>345451</v>
+      </c>
+      <c r="C365" s="12">
+        <v>50.000300000000003</v>
+      </c>
+      <c r="D365" s="12">
+        <v>6908.98</v>
+      </c>
+      <c r="E365" s="16">
+        <v>5</v>
+      </c>
+      <c r="F365" s="16">
+        <v>331584</v>
+      </c>
+      <c r="G365" s="16">
+        <v>50.066400000000002</v>
+      </c>
+      <c r="H365" s="16">
+        <v>6622.89</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="10">
+        <v>5</v>
+      </c>
+      <c r="B366" s="12">
+        <v>348361</v>
+      </c>
+      <c r="C366" s="12">
+        <v>50.029299999999999</v>
+      </c>
+      <c r="D366" s="12">
+        <v>6963.14</v>
+      </c>
+      <c r="E366" s="16">
+        <v>5</v>
+      </c>
+      <c r="F366" s="16">
+        <v>332755</v>
+      </c>
+      <c r="G366" s="16">
+        <v>50.019100000000002</v>
+      </c>
+      <c r="H366" s="16">
+        <v>6652.56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="10">
+        <v>5</v>
+      </c>
+      <c r="B367" s="12">
+        <v>347172</v>
+      </c>
+      <c r="C367" s="12">
+        <v>50.000900000000001</v>
+      </c>
+      <c r="D367" s="12">
+        <v>6943.32</v>
+      </c>
+      <c r="E367" s="16">
+        <v>5</v>
+      </c>
+      <c r="F367" s="16">
+        <v>340077</v>
+      </c>
+      <c r="G367" s="16">
+        <v>50.080399999999997</v>
+      </c>
+      <c r="H367" s="16">
+        <v>6790.63</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="10">
+        <v>5</v>
+      </c>
+      <c r="B368" s="12">
+        <v>347689</v>
+      </c>
+      <c r="C368" s="12">
+        <v>50.000399999999999</v>
+      </c>
+      <c r="D368" s="12">
+        <v>6953.72</v>
+      </c>
+      <c r="E368" s="16">
+        <v>5</v>
+      </c>
+      <c r="F368" s="16">
+        <v>338288</v>
+      </c>
+      <c r="G368" s="16">
+        <v>50.018999999999998</v>
+      </c>
+      <c r="H368" s="16">
+        <v>6763.19</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D369">
+        <f>AVERAGE(D359:D368)</f>
+        <v>6962.5969999999998</v>
+      </c>
+      <c r="H369">
+        <f>AVERAGE(H359:H368)</f>
+        <v>6711.2599999999993</v>
+      </c>
+      <c r="J369">
+        <f>AVERAGE(D369:H369)</f>
+        <v>6836.9285</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H373" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I373" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K373" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L373" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" s="17">
+        <v>1</v>
+      </c>
+      <c r="B374" s="17">
+        <v>1</v>
+      </c>
+      <c r="C374" s="17">
+        <v>19895.419999999998</v>
+      </c>
+      <c r="D374" s="17">
+        <v>2</v>
+      </c>
+      <c r="E374" s="17">
+        <v>19895.419999999998</v>
+      </c>
+      <c r="H374" s="17">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>19918.78</v>
+      </c>
+      <c r="K374" s="17">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>19872.060000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" s="17">
+        <v>2</v>
+      </c>
+      <c r="B375" s="17">
+        <v>2</v>
+      </c>
+      <c r="C375" s="17">
+        <v>15106.6</v>
+      </c>
+      <c r="D375" s="17">
+        <v>4</v>
+      </c>
+      <c r="E375" s="17">
+        <v>15106.6</v>
+      </c>
+      <c r="H375" s="17">
+        <v>2</v>
+      </c>
+      <c r="I375">
+        <v>15564.01</v>
+      </c>
+      <c r="K375" s="17">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>15002.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A376" s="17">
+        <v>3</v>
+      </c>
+      <c r="B376" s="17">
+        <v>3</v>
+      </c>
+      <c r="C376" s="17">
+        <v>10757.64</v>
+      </c>
+      <c r="D376" s="17">
+        <v>6</v>
+      </c>
+      <c r="E376" s="17">
+        <v>10757.64</v>
+      </c>
+      <c r="H376" s="17">
+        <v>3</v>
+      </c>
+      <c r="I376">
+        <v>10948.57</v>
+      </c>
+      <c r="K376" s="17">
+        <v>3</v>
+      </c>
+      <c r="L376">
+        <v>10566.17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A377" s="17">
+        <v>1</v>
+      </c>
+      <c r="B377" s="17">
+        <v>2</v>
+      </c>
+      <c r="C377" s="17">
+        <v>17953.89</v>
+      </c>
+      <c r="D377" s="17">
+        <v>3</v>
+      </c>
+      <c r="E377" s="17">
+        <v>17953.89</v>
+      </c>
+      <c r="H377" s="17">
+        <v>2</v>
+      </c>
+      <c r="I377">
+        <v>18125.96</v>
+      </c>
+      <c r="K377" s="17">
+        <v>1</v>
+      </c>
+      <c r="L377" s="18">
+        <v>17497.7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A378" s="17">
+        <v>2</v>
+      </c>
+      <c r="B378" s="17">
+        <v>1</v>
+      </c>
+      <c r="C378" s="17">
+        <v>17811.830000000002</v>
+      </c>
+      <c r="D378" s="17">
+        <v>3</v>
+      </c>
+      <c r="E378" s="17">
+        <v>17811.830000000002</v>
+      </c>
+      <c r="H378" s="17">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>18184.34</v>
+      </c>
+      <c r="K378" s="17">
+        <v>2</v>
+      </c>
+      <c r="L378">
+        <v>17723.43</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" s="17">
+        <v>1</v>
+      </c>
+      <c r="B379" s="17">
+        <v>3</v>
+      </c>
+      <c r="C379" s="17">
+        <v>15433.39</v>
+      </c>
+      <c r="D379" s="17">
+        <v>4</v>
+      </c>
+      <c r="E379" s="17">
+        <v>15433.39</v>
+      </c>
+      <c r="H379" s="17">
+        <v>3</v>
+      </c>
+      <c r="I379">
+        <v>15385.83</v>
+      </c>
+      <c r="K379" s="17">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>14897.17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A380" s="17">
+        <v>3</v>
+      </c>
+      <c r="B380" s="17">
+        <v>1</v>
+      </c>
+      <c r="C380" s="17">
+        <v>15141.5</v>
+      </c>
+      <c r="D380" s="17">
+        <v>4</v>
+      </c>
+      <c r="E380" s="17">
+        <v>15141.5</v>
+      </c>
+      <c r="H380" s="17">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>15657.73</v>
+      </c>
+      <c r="K380" s="17">
+        <v>3</v>
+      </c>
+      <c r="L380">
+        <v>15209.04</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" s="17">
+        <v>5</v>
+      </c>
+      <c r="B381" s="17">
+        <v>5</v>
+      </c>
+      <c r="C381" s="17">
+        <v>6836.9290000000001</v>
+      </c>
+      <c r="D381" s="17">
+        <v>10</v>
+      </c>
+      <c r="E381" s="17">
+        <v>6836.9290000000001</v>
+      </c>
+      <c r="H381" s="17">
+        <v>5</v>
+      </c>
+      <c r="I381" s="18">
+        <v>6962.5969999999998</v>
+      </c>
+      <c r="K381" s="17">
+        <v>5</v>
+      </c>
+      <c r="L381">
+        <v>6711.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Projects\Repos\TCP-Forum-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A02ADE-7169-402B-9A12-8BC8492521DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677FE24-2C10-4996-B2A7-C7341C9D1C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
+    <workbookView xWindow="-9684" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="24">
   <si>
     <t xml:space="preserve"> Thread Type</t>
   </si>
@@ -99,10 +99,13 @@
     <t>Average Throughput Per Second Per Thread</t>
   </si>
   <si>
-    <t>average throughput</t>
+    <t>Poster threads</t>
   </si>
   <si>
-    <t>Poster threads</t>
+    <t>Average Throughput</t>
+  </si>
+  <si>
+    <t>Average Throughput Per Second Per Thread (Overall)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -350,6 +353,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,414 +383,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Average Throughput for Total Threads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$373</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Throughput Per Second Per Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$374:$C$381</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>19895.419999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15106.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10757.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17953.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17811.830000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15433.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15141.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6836.9290000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B77-4D46-A9C6-E7B4F8665D9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$373</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$374:$D$381</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B77-4D46-A9C6-E7B4F8665D9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="232419471"/>
-        <c:axId val="232419887"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="232419471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="232419887"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="232419887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="232419471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1114,6 +721,1092 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput Per Second</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per Poster Thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$373</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$374:$H$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$374:$I$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19918.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15564.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10948.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18125.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18184.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15385.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15657.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6962.5969999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-784B-4FE3-BF1C-6DCF4325DA03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="239096575"/>
+        <c:axId val="239096991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239096575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239096991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="239096991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239096575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput Per Second Per Reader Thread</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$373</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$374:$K$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$374:$L$381</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19872.060000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15002.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10566.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17497.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17723.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14897.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15209.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6711.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4230-46C1-89C3-A09870BD9665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233227935"/>
+        <c:axId val="233230431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233227935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233230431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233230431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233227935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$385</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput Per Second Per Thread (Overall)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$386:$B$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$386:$C$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19895.419999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15106.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10757.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17953.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17811.830000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15433.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15141.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6836.9290000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61F5-4207-B631-A2E2D11DBBD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41913407"/>
+        <c:axId val="41912159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41913407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41912159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41912159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41913407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1194,8 +1887,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1222,8 +1995,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1303,11 +2076,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1318,11 +2086,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1334,7 +2097,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1354,9 +2117,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1369,10 +2129,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1412,22 +2172,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1532,8 +2293,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1665,19 +2426,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1691,6 +2453,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2226,44 +2999,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>383</xdr:row>
-      <xdr:rowOff>8572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1676399</xdr:colOff>
-      <xdr:row>404</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAF0B83-30D7-4560-9346-2F2C8AAD8FE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2294,7 +4063,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1246822</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435292</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>178117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8E82CF-D418-4D8E-95A1-F72C88301B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551497</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>132397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>244792</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>159067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB816173-63D9-4264-848C-FA3C41CFFE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762952</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721042</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>178117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B0225D-985D-48F0-AA3C-269CFD9D0DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2600,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39436497-7E9A-468C-9D89-00C8C101F9B9}">
-  <dimension ref="A1:L381"/>
+  <dimension ref="A1:L427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E369" workbookViewId="0">
-      <selection activeCell="L381" sqref="L381"/>
+    <sheetView tabSelected="1" topLeftCell="D411" workbookViewId="0">
+      <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8312,16 +10189,16 @@
         <v>20</v>
       </c>
       <c r="H373" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I373" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="I373" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="K373" s="17" t="s">
         <v>18</v>
       </c>
       <c r="L373" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -8554,6 +10431,175 @@
       </c>
       <c r="L381">
         <v>6711.26</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B385" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B386" s="17">
+        <v>2</v>
+      </c>
+      <c r="C386" s="17">
+        <v>19895.419999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B387" s="17">
+        <v>4</v>
+      </c>
+      <c r="C387" s="17">
+        <v>15106.6</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B388" s="17">
+        <v>6</v>
+      </c>
+      <c r="C388" s="17">
+        <v>10757.64</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="17">
+        <v>3</v>
+      </c>
+      <c r="C389" s="17">
+        <v>17953.89</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B390" s="17">
+        <v>3</v>
+      </c>
+      <c r="C390" s="17">
+        <v>17811.830000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B391" s="17">
+        <v>4</v>
+      </c>
+      <c r="C391" s="17">
+        <v>15433.39</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B392" s="17">
+        <v>4</v>
+      </c>
+      <c r="C392" s="17">
+        <v>15141.5</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B393" s="17">
+        <v>10</v>
+      </c>
+      <c r="C393" s="17">
+        <v>6836.9290000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="413" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C413" s="19">
+        <v>9618.02</v>
+      </c>
+      <c r="E413" s="21">
+        <v>9342.2000000000007</v>
+      </c>
+    </row>
+    <row r="414" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C414" s="20">
+        <v>8601</v>
+      </c>
+      <c r="E414" s="22">
+        <v>8974.76</v>
+      </c>
+    </row>
+    <row r="415" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C415" s="20">
+        <v>9003.2000000000007</v>
+      </c>
+      <c r="E415" s="22">
+        <v>8845.6200000000008</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C416" s="20">
+        <v>8836.1299999999992</v>
+      </c>
+      <c r="E416" s="22">
+        <v>8593.48</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C417" s="20">
+        <v>8785.83</v>
+      </c>
+      <c r="E417" s="22">
+        <v>8449.67</v>
+      </c>
+    </row>
+    <row r="418" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C418" s="20">
+        <v>8963.23</v>
+      </c>
+      <c r="E418" s="22">
+        <v>9032.8700000000008</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C419" s="20">
+        <v>9629.0300000000007</v>
+      </c>
+      <c r="E419" s="22">
+        <v>9507.6200000000008</v>
+      </c>
+    </row>
+    <row r="420" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C420" s="20">
+        <v>9048.23</v>
+      </c>
+      <c r="E420" s="22">
+        <v>8358.2199999999993</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C421" s="20">
+        <v>8501.49</v>
+      </c>
+      <c r="E421" s="22">
+        <v>8136.17</v>
+      </c>
+    </row>
+    <row r="422" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C422" s="20">
+        <v>9220.7900000000009</v>
+      </c>
+      <c r="E422" s="22">
+        <v>8752.65</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C424">
+        <f>AVERAGE(C413:C422)</f>
+        <v>9020.6950000000015</v>
+      </c>
+      <c r="E424">
+        <f>AVERAGE(E413:E422)</f>
+        <v>8799.3259999999991</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D427">
+        <f>AVERAGE(C424:E424)</f>
+        <v>8910.0105000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Projects\Repos\TCP-Forum-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git Repos\TCP-Forum-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677FE24-2C10-4996-B2A7-C7341C9D1C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E079548-AFA3-4993-98AB-E57B7B2F672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9684" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A70D0F38-2F49-4733-A14D-F7656FB5FA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4483,21 +4483,21 @@
       <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4520,8 +4520,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>539.18245761523031</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4563,14 +4563,14 @@
         <v>21543.599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>19897.099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4604,14 +4604,14 @@
         <v>19805.099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>19571.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4645,14 +4645,14 @@
         <v>18554.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>19613.400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -4686,14 +4686,14 @@
         <v>19539.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>19687.099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -4727,14 +4727,14 @@
         <v>19505.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>20000.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -4768,14 +4768,14 @@
         <v>19927</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>20077.400000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -4809,14 +4809,14 @@
         <v>19987.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>19920.8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -4850,14 +4850,14 @@
         <v>19770.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>20548.599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
@@ -4891,14 +4891,14 @@
         <v>20378</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>20031.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4932,8 +4932,8 @@
         <v>19708.599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>15798.9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -4967,14 +4967,14 @@
         <v>15105.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>15780.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -5008,14 +5008,14 @@
         <v>15200.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>15185.1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
@@ -5049,14 +5049,14 @@
         <v>14888.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>15659.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -5090,14 +5090,14 @@
         <v>15046.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>15554.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
@@ -5131,14 +5131,14 @@
         <v>15235.4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>15400.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
@@ -5172,14 +5172,14 @@
         <v>14625</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>15684.8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
@@ -5213,14 +5213,14 @@
         <v>14827.2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>15611.4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
@@ -5254,14 +5254,14 @@
         <v>15114.7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>15754.8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>2</v>
       </c>
@@ -5295,14 +5295,14 @@
         <v>15199.3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>1</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>15210.3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>2</v>
       </c>
@@ -5336,8 +5336,8 @@
         <v>14786.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>11104.2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -5371,14 +5371,14 @@
         <v>10719.1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>1</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>11120.2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>2</v>
       </c>
@@ -5412,14 +5412,14 @@
         <v>10700.4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>1</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>10990.7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>2</v>
       </c>
@@ -5453,14 +5453,14 @@
         <v>10579.1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>10795.9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>2</v>
       </c>
@@ -5494,14 +5494,14 @@
         <v>10513.7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>10798.7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
@@ -5535,14 +5535,14 @@
         <v>10458.4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>10874.8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -5576,14 +5576,14 @@
         <v>10558.7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>10878.2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
@@ -5617,14 +5617,14 @@
         <v>10549.4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>1</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>10821.8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -5658,14 +5658,14 @@
         <v>10497.6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>1</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>11353.1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>2</v>
       </c>
@@ -5699,14 +5699,14 @@
         <v>10751.4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>10748.1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>2</v>
       </c>
@@ -5740,8 +5740,8 @@
         <v>10339.299999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>18079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>2</v>
       </c>
@@ -5775,14 +5775,14 @@
         <v>17801.400000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>18042.599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>2</v>
       </c>
@@ -5816,14 +5816,14 @@
         <v>17643.900000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>1</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>18052.3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -5857,14 +5857,14 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>17905.3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>2</v>
       </c>
@@ -5898,14 +5898,14 @@
         <v>17717.400000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>1</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>18700.400000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>2</v>
       </c>
@@ -5939,14 +5939,14 @@
         <v>16962.3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>1</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>18159.3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>2</v>
       </c>
@@ -5980,14 +5980,14 @@
         <v>17220.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>17936.8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>2</v>
       </c>
@@ -6021,14 +6021,14 @@
         <v>17609.8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>1</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>18318</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
@@ -6062,14 +6062,14 @@
         <v>17736</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>1</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>18037.900000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>2</v>
       </c>
@@ -6103,14 +6103,14 @@
         <v>17696</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>1</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>18027.3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>2</v>
       </c>
@@ -6144,8 +6144,8 @@
         <v>16868.099999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>17953.885000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>2</v>
       </c>
@@ -6183,14 +6183,14 @@
         <v>17955.3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>1</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>18279.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>2</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>17953.900000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>1</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>18101.3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>2</v>
       </c>
@@ -6265,14 +6265,14 @@
         <v>17671.2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>18024.400000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
@@ -6306,14 +6306,14 @@
         <v>17778.2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>18056</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>2</v>
       </c>
@@ -6347,14 +6347,14 @@
         <v>17356.900000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>1</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>17955.3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
@@ -6388,14 +6388,14 @@
         <v>17620.900000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>1</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>18317.900000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>2</v>
       </c>
@@ -6429,14 +6429,14 @@
         <v>17630.7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>1</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>18051.5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
@@ -6470,14 +6470,14 @@
         <v>17955.400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>1</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>17928.5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>2</v>
       </c>
@@ -6511,14 +6511,14 @@
         <v>17684.599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>18050.7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>2</v>
       </c>
@@ -6552,8 +6552,8 @@
         <v>17627.2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>6885.54</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>2</v>
       </c>
@@ -6587,14 +6587,14 @@
         <v>6634.49</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>7114.61</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>2</v>
       </c>
@@ -6628,14 +6628,14 @@
         <v>6776.07</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>1</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>6922.12</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>2</v>
       </c>
@@ -6669,14 +6669,14 @@
         <v>6630.84</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>1</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>6937.99</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>2</v>
       </c>
@@ -6710,14 +6710,14 @@
         <v>6657.36</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>1</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>7025.04</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>2</v>
       </c>
@@ -6751,14 +6751,14 @@
         <v>6855.78</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>6971.51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>2</v>
       </c>
@@ -6792,14 +6792,14 @@
         <v>6728.79</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>1</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>6908.98</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>2</v>
       </c>
@@ -6833,14 +6833,14 @@
         <v>6622.89</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>6963.14</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
@@ -6874,14 +6874,14 @@
         <v>6652.56</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>1</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>6943.32</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>2</v>
       </c>
@@ -6915,14 +6915,14 @@
         <v>6790.63</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>1</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>6953.72</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>2</v>
       </c>
@@ -6956,8 +6956,8 @@
         <v>6763.19</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1000.35</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>2</v>
       </c>
@@ -6991,14 +6991,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>1</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>2</v>
       </c>
@@ -7032,14 +7032,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>1</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1000.35</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>2</v>
       </c>
@@ -7073,14 +7073,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>1</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>2</v>
       </c>
@@ -7114,14 +7114,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>1</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>2</v>
       </c>
@@ -7155,14 +7155,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>1</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>2</v>
       </c>
@@ -7196,14 +7196,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>1</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>2</v>
       </c>
@@ -7237,14 +7237,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>1</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>2</v>
       </c>
@@ -7278,14 +7278,14 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>1</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>2</v>
       </c>
@@ -7319,14 +7319,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>1</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>2</v>
       </c>
@@ -7360,8 +7360,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>2</v>
       </c>
@@ -7395,14 +7395,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>1</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>2</v>
       </c>
@@ -7436,14 +7436,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>2</v>
       </c>
@@ -7477,14 +7477,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>2</v>
       </c>
@@ -7518,14 +7518,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>2</v>
       </c>
@@ -7559,14 +7559,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>1</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>2</v>
       </c>
@@ -7600,14 +7600,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>1</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>2</v>
       </c>
@@ -7641,14 +7641,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>1</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>2</v>
       </c>
@@ -7682,14 +7682,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>2</v>
       </c>
@@ -7723,14 +7723,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>1</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1000.3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>2</v>
       </c>
@@ -7764,8 +7764,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="248" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="248" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
         <v>9</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>1</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>21543.599999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>1</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>19805.099999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>1</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>18554.7</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>1</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>19539.7</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>1</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>19505.8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>1</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>19927</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>1</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>19987.8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>1</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>19770.3</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>1</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>20378</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>1</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>19708.599999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D259">
         <f>AVERAGE(D249:D258)</f>
         <v>19918.780000000002</v>
@@ -8065,8 +8065,8 @@
         <v>19895.419999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="13" t="s">
         <v>9</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10">
         <v>2</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>15105.1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>2</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>15200.6</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>2</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>14888.7</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>2</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>15046.5</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>2</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>15235.4</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>2</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>14625</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>2</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>14827.2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>2</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>15114.7</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>2</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>15199.3</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>2</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>14786.5</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D273">
         <f>AVERAGE(D263:D272)</f>
         <v>15564.009999999998</v>
@@ -8366,8 +8366,8 @@
         <v>15106.599999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="278" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="278" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
         <v>9</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>3</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>10719.1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>3</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>10700.4</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>3</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>10579.1</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>3</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>10513.7</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>3</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>10458.4</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>3</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>10558.7</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>3</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>10549.4</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>3</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>10497.6</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>3</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>10751.4</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>3</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>10339.299999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D289">
         <f>AVERAGE(D279:D288)</f>
         <v>10948.570000000003</v>
@@ -8667,8 +8667,8 @@
         <v>10757.640000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="295" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="295" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="13" t="s">
         <v>9</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>2</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>17801.400000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>2</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>17643.900000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>2</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>2</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>17717.400000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>2</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>16962.3</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>2</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>17220.099999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>2</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>17609.8</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <v>2</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>17736</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <v>2</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>17696</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <v>2</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>16868.099999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D306">
         <f>AVERAGE(D296:D305)</f>
         <v>18125.96</v>
@@ -8968,8 +8968,8 @@
         <v>17811.830000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="312" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="312" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="13" t="s">
         <v>9</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10">
         <v>1</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>17955.3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <v>1</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>17953.900000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10">
         <v>1</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>17671.2</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <v>1</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>17778.2</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10">
         <v>1</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>17356.900000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10">
         <v>1</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>17620.900000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10">
         <v>1</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>17630.7</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10">
         <v>1</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>17955.400000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="10">
         <v>1</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>17684.599999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10">
         <v>1</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>17627.2</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D323">
         <f>AVERAGE(D313:D322)</f>
         <v>18184.340000000004</v>
@@ -9269,8 +9269,8 @@
         <v>17953.885000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="328" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="328" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="13" t="s">
         <v>9</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
         <v>1</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>15094.7</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10">
         <v>1</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>15114.5</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10">
         <v>1</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>15444.4</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10">
         <v>1</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>15137.8</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10">
         <v>1</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>15324.2</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="10">
         <v>1</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>15135.5</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
         <v>1</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>15026.6</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
         <v>1</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>15332.7</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
         <v>1</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>15224.4</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
         <v>1</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>15255.6</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D339">
         <f>AVERAGE(D329:D338)</f>
         <v>15657.73</v>
@@ -9570,8 +9570,8 @@
         <v>15433.384999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="342" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="13" t="s">
         <v>9</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
         <v>3</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>14402.5</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
         <v>3</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>14713.6</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10">
         <v>3</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>15041.7</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10">
         <v>3</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>14771</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10">
         <v>3</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>14714.3</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10">
         <v>3</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>14833</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10">
         <v>3</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>15071.9</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>14669.9</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="10">
         <v>3</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>15391</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10">
         <v>3</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>15362.8</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D353">
         <f>AVERAGE(D343:D352)</f>
         <v>15385.829999999998</v>
@@ -9871,8 +9871,8 @@
         <v>15141.499999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="358" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="358" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="13" t="s">
         <v>9</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="10">
         <v>5</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>6634.49</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10">
         <v>5</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>6776.07</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="10">
         <v>5</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>6630.84</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10">
         <v>5</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>6657.36</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10">
         <v>5</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>6855.78</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10">
         <v>5</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>6728.79</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10">
         <v>5</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>6622.89</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="10">
         <v>5</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>6652.56</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10">
         <v>5</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>6790.63</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
         <v>5</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>6763.19</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D369">
         <f>AVERAGE(D359:D368)</f>
         <v>6962.5969999999998</v>
@@ -10172,7 +10172,7 @@
         <v>6836.9285</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="s">
         <v>17</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="17">
         <v>1</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>19872.060000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="17">
         <v>2</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>15002.9</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="17">
         <v>3</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>10566.17</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="17">
         <v>1</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>17497.7</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="17">
         <v>2</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>17723.43</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="17">
         <v>1</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>14897.17</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="17">
         <v>3</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>15209.04</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="17">
         <v>5</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>6711.26</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="17" t="s">
         <v>19</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="17">
         <v>2</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>19895.419999999998</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="17">
         <v>4</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>15106.6</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="17">
         <v>6</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>10757.64</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="17">
         <v>3</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>17953.89</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="17">
         <v>3</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>17811.830000000002</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="17">
         <v>4</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>15433.39</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="17">
         <v>4</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>15141.5</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="17">
         <v>10</v>
       </c>
@@ -10505,8 +10505,8 @@
         <v>6836.9290000000001</v>
       </c>
     </row>
-    <row r="412" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="413" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="413" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C413" s="19">
         <v>9618.02</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>9342.2000000000007</v>
       </c>
     </row>
-    <row r="414" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C414" s="20">
         <v>8601</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>8974.76</v>
       </c>
     </row>
-    <row r="415" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C415" s="20">
         <v>9003.2000000000007</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>8845.6200000000008</v>
       </c>
     </row>
-    <row r="416" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C416" s="20">
         <v>8836.1299999999992</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>8593.48</v>
       </c>
     </row>
-    <row r="417" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C417" s="20">
         <v>8785.83</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>8449.67</v>
       </c>
     </row>
-    <row r="418" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C418" s="20">
         <v>8963.23</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>9032.8700000000008</v>
       </c>
     </row>
-    <row r="419" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C419" s="20">
         <v>9629.0300000000007</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>9507.6200000000008</v>
       </c>
     </row>
-    <row r="420" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C420" s="20">
         <v>9048.23</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>8358.2199999999993</v>
       </c>
     </row>
-    <row r="421" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C421" s="20">
         <v>8501.49</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>8136.17</v>
       </c>
     </row>
-    <row r="422" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C422" s="20">
         <v>9220.7900000000009</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>8752.65</v>
       </c>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C424">
         <f>AVERAGE(C413:C422)</f>
         <v>9020.6950000000015</v>
@@ -10596,7 +10596,7 @@
         <v>8799.3259999999991</v>
       </c>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D427">
         <f>AVERAGE(C424:E424)</f>
         <v>8910.0105000000003</v>
